--- a/Analysis/Excel/Rate of Improvement.xlsx
+++ b/Analysis/Excel/Rate of Improvement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydenrome/Dropbox (MIT)/5 - MEng/AlgoWiki Research/AlgoWiki/Analysis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD5FDE6-5D30-E945-9CAF-6F654F9966DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4347D78-52C5-B84B-B854-76716B587C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{92C2622C-CA13-1C45-BDE5-1E9F025D8B87}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{92C2622C-CA13-1C45-BDE5-1E9F025D8B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,6 @@
     <sheet name="Tradeoffs" sheetId="3" r:id="rId4"/>
     <sheet name="With Space Analysis" sheetId="4" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Log Scale'!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Log Scale'!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'With Space Analysis'!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'With Space Analysis'!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'With Space Analysis'!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'With Space Analysis'!$B$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'With Space Analysis'!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'With Space Analysis'!$C$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'With Space Analysis'!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'With Space Analysis'!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'With Space Analysis'!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'With Space Analysis'!$B$2:$B$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -521,49 +507,49 @@
     <t>2000s</t>
   </si>
   <si>
-    <t>2010s and Later</t>
-  </si>
-  <si>
     <t>Later Analyzed</t>
   </si>
   <si>
     <t>Analyzed in Original Paper</t>
   </si>
   <si>
-    <t>0-1%</t>
-  </si>
-  <si>
-    <t>1-3%</t>
-  </si>
-  <si>
-    <t>3-10%</t>
-  </si>
-  <si>
-    <t>10-31%</t>
-  </si>
-  <si>
-    <t>31-100%</t>
-  </si>
-  <si>
-    <t>100-316%</t>
-  </si>
-  <si>
-    <t>316-1000%</t>
-  </si>
-  <si>
-    <t>1000-3162%</t>
-  </si>
-  <si>
-    <t>3162-10000%</t>
-  </si>
-  <si>
-    <t>&gt;10000%</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Of the problem families that have improved space, they have all outpaced the improvement rate of RAM access speed</t>
+  </si>
+  <si>
+    <t>2010s</t>
+  </si>
+  <si>
+    <t>3,162 - 10,000%</t>
+  </si>
+  <si>
+    <t>1,000 - 3,162%</t>
+  </si>
+  <si>
+    <t>316 - 1,000%</t>
+  </si>
+  <si>
+    <t>100 - 316%</t>
+  </si>
+  <si>
+    <t>31 - 100%</t>
+  </si>
+  <si>
+    <t>10 - 31%</t>
+  </si>
+  <si>
+    <t>1 - 3%</t>
+  </si>
+  <si>
+    <t>3 - 10%</t>
+  </si>
+  <si>
+    <t>0 - 1%</t>
+  </si>
+  <si>
+    <t>&gt; 10,000%</t>
   </si>
 </sst>
 </file>
@@ -653,6 +639,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,9 +657,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1575,34 +1561,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0-1%</c:v>
+                  <c:v>0 - 1%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-3%</c:v>
+                  <c:v>1 - 3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-10%</c:v>
+                  <c:v>3 - 10%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-31%</c:v>
+                  <c:v>10 - 31%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31-100%</c:v>
+                  <c:v>31 - 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100-316%</c:v>
+                  <c:v>100 - 316%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316-1000%</c:v>
+                  <c:v>316 - 1,000%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000-3162%</c:v>
+                  <c:v>1,000 - 3,162%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3162-10000%</c:v>
+                  <c:v>3,162 - 10,000%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>&gt;10000%</c:v>
+                  <c:v>&gt; 10,000%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1901,7 +1887,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2054,34 +2040,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0-1%</c:v>
+                  <c:v>0 - 1%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-3%</c:v>
+                  <c:v>1 - 3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-10%</c:v>
+                  <c:v>3 - 10%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-31%</c:v>
+                  <c:v>10 - 31%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31-100%</c:v>
+                  <c:v>31 - 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100-316%</c:v>
+                  <c:v>100 - 316%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316-1000%</c:v>
+                  <c:v>316 - 1,000%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000-3162%</c:v>
+                  <c:v>1,000 - 3,162%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3162-10000%</c:v>
+                  <c:v>3,162 - 10,000%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>&gt;10000%</c:v>
+                  <c:v>&gt; 10,000%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2333,7 +2319,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2475,34 +2461,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0-1%</c:v>
+                  <c:v>0 - 1%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-3%</c:v>
+                  <c:v>1 - 3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-10%</c:v>
+                  <c:v>3 - 10%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-31%</c:v>
+                  <c:v>10 - 31%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31-100%</c:v>
+                  <c:v>31 - 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100-316%</c:v>
+                  <c:v>100 - 316%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316-1000%</c:v>
+                  <c:v>316 - 1,000%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000-3162%</c:v>
+                  <c:v>1,000 - 3,162%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3162-10000%</c:v>
+                  <c:v>3,162 - 10,000%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>&gt;10000%</c:v>
+                  <c:v>&gt; 10,000%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2754,7 +2740,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6276,7 +6262,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentage of Problem Families With Time-Space Complexity Tradeoffs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -6322,7 +6363,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -6392,7 +6433,7 @@
                   <c:v>2000s</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2010s and Later</c:v>
+                  <c:v>2010s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6479,7 +6520,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6525,7 +6566,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -6535,7 +6576,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="0">
+                  <a:rPr lang="en-US" sz="1200" b="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -6549,8 +6590,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="9.5011876484560574E-3"/>
-              <c:y val="0.27408573928258967"/>
+              <c:x val="7.91765637371338E-3"/>
+              <c:y val="0.27309894152575193"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6566,7 +6607,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -6595,7 +6636,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6810,7 +6851,7 @@
                   <c:v>2000s</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2010s and Later</c:v>
+                  <c:v>2010s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6960,7 +7001,7 @@
                   <c:v>2000s</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2010s and Later</c:v>
+                  <c:v>2010s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10280,34 +10321,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0-1%</c:v>
+                  <c:v>0 - 1%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-3%</c:v>
+                  <c:v>1 - 3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-10%</c:v>
+                  <c:v>3 - 10%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-31%</c:v>
+                  <c:v>10 - 31%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31-100%</c:v>
+                  <c:v>31 - 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100-316%</c:v>
+                  <c:v>100 - 316%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316-1000%</c:v>
+                  <c:v>316 - 1,000%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000-3162%</c:v>
+                  <c:v>1,000 - 3,162%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3162-10000%</c:v>
+                  <c:v>3,162 - 10,000%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>&gt;10000%</c:v>
+                  <c:v>&gt; 10,000%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10437,34 +10478,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0-1%</c:v>
+                  <c:v>0 - 1%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-3%</c:v>
+                  <c:v>1 - 3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-10%</c:v>
+                  <c:v>3 - 10%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-31%</c:v>
+                  <c:v>10 - 31%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31-100%</c:v>
+                  <c:v>31 - 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100-316%</c:v>
+                  <c:v>100 - 316%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316-1000%</c:v>
+                  <c:v>316 - 1,000%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000-3162%</c:v>
+                  <c:v>1,000 - 3,162%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3162-10000%</c:v>
+                  <c:v>3,162 - 10,000%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>&gt;10000%</c:v>
+                  <c:v>&gt; 10,000%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11017,34 +11058,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0-1%</c:v>
+                  <c:v>0 - 1%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-3%</c:v>
+                  <c:v>1 - 3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-10%</c:v>
+                  <c:v>3 - 10%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-31%</c:v>
+                  <c:v>10 - 31%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31-100%</c:v>
+                  <c:v>31 - 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100-316%</c:v>
+                  <c:v>100 - 316%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316-1000%</c:v>
+                  <c:v>316 - 1,000%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000-3162%</c:v>
+                  <c:v>1,000 - 3,162%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3162-10000%</c:v>
+                  <c:v>3,162 - 10,000%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>&gt;10000%</c:v>
+                  <c:v>&gt; 10,000%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11174,34 +11215,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0-1%</c:v>
+                  <c:v>0 - 1%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-3%</c:v>
+                  <c:v>1 - 3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-10%</c:v>
+                  <c:v>3 - 10%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-31%</c:v>
+                  <c:v>10 - 31%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31-100%</c:v>
+                  <c:v>31 - 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100-316%</c:v>
+                  <c:v>100 - 316%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316-1000%</c:v>
+                  <c:v>316 - 1,000%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000-3162%</c:v>
+                  <c:v>1,000 - 3,162%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3162-10000%</c:v>
+                  <c:v>3,162 - 10,000%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>&gt;10000%</c:v>
+                  <c:v>&gt; 10,000%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11758,34 +11799,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0-1%</c:v>
+                  <c:v>0 - 1%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-3%</c:v>
+                  <c:v>1 - 3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-10%</c:v>
+                  <c:v>3 - 10%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-31%</c:v>
+                  <c:v>10 - 31%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31-100%</c:v>
+                  <c:v>31 - 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100-316%</c:v>
+                  <c:v>100 - 316%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316-1000%</c:v>
+                  <c:v>316 - 1,000%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000-3162%</c:v>
+                  <c:v>1,000 - 3,162%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3162-10000%</c:v>
+                  <c:v>3,162 - 10,000%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>&gt;10000%</c:v>
+                  <c:v>&gt; 10,000%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11915,34 +11956,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0-1%</c:v>
+                  <c:v>0 - 1%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-3%</c:v>
+                  <c:v>1 - 3%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3-10%</c:v>
+                  <c:v>3 - 10%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-31%</c:v>
+                  <c:v>10 - 31%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31-100%</c:v>
+                  <c:v>31 - 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100-316%</c:v>
+                  <c:v>100 - 316%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316-1000%</c:v>
+                  <c:v>316 - 1,000%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000-3162%</c:v>
+                  <c:v>1,000 - 3,162%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3162-10000%</c:v>
+                  <c:v>3,162 - 10,000%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>&gt;10000%</c:v>
+                  <c:v>&gt; 10,000%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19736,8 +19777,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20176,7 +20217,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>3.04%</a:t>
+            <a:t>3%</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -20298,17 +20339,11 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>24.00%</a:t>
+            <a:t>24%</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> - DRAM</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Capacity</a:t>
+            <a:t> - DRAM Capacity</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -20521,7 +20556,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>3.04%</a:t>
+            <a:t>3%</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -20643,17 +20678,11 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>24.00%</a:t>
+            <a:t>24%</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> - DRAM</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Capacity</a:t>
+            <a:t> - DRAM Capacity</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -20866,7 +20895,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>3.04%</a:t>
+            <a:t>3%</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -20988,17 +21017,11 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>24.00%</a:t>
+            <a:t>24%</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> - DRAM</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Capacity</a:t>
+            <a:t> - DRAM Capacity</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -21559,8 +21582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BAF79A-1299-8941-958B-F05411C8C3B1}">
   <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y72" sqref="Y72"/>
+    <sheetView topLeftCell="I44" workbookViewId="0">
+      <selection activeCell="Y68" sqref="Y68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21578,16 +21601,16 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
@@ -21941,13 +21964,13 @@
       <c r="O11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -21983,11 +22006,11 @@
       <c r="O12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -22035,148 +22058,148 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="N15" s="7" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="N15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
     </row>
     <row r="38" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="N38" s="7" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="N38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
     </row>
     <row r="61" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="N61" s="7" t="s">
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="N61" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
     </row>
     <row r="62" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -22199,8 +22222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9ECB6C-D7BD-A841-AC6F-DAD1223D2F6D}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L37" workbookViewId="0">
-      <selection activeCell="Y70" sqref="Y70"/>
+    <sheetView topLeftCell="H45" workbookViewId="0">
+      <selection activeCell="Y83" sqref="Y83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22218,38 +22241,38 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="E1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="14">
+        <v>168</v>
+      </c>
+      <c r="B2" s="9">
         <v>0.79659999999999997</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="9">
         <v>0.79659999999999997</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="9">
         <v>0.79659999999999997</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="9">
         <v>0.5</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="9">
         <v>0.5</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="9">
         <v>0.5</v>
       </c>
       <c r="H2" s="3"/>
@@ -22261,24 +22284,24 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="14">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
+        <v>166</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
         <v>0</v>
       </c>
       <c r="H3" s="3"/>
@@ -22290,24 +22313,24 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
+        <v>167</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="9">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="9">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="H4" s="3"/>
@@ -22319,24 +22342,24 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="14">
+        <v>165</v>
+      </c>
+      <c r="B5" s="9">
         <v>4.24E-2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="9">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="9">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="9">
         <v>0.1356</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="9">
         <v>0.1017</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="9">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="H5" s="3"/>
@@ -22348,24 +22371,24 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="14">
+        <v>164</v>
+      </c>
+      <c r="B6" s="9">
         <v>3.39E-2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="9">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="9">
         <v>4.24E-2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="9">
         <v>0.11020000000000001</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="9">
         <v>0.1356</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="9">
         <v>0.12709999999999999</v>
       </c>
       <c r="H6" s="3"/>
@@ -22379,22 +22402,22 @@
       <c r="A7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="9">
         <v>3.39E-2</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="9">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="9">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="9">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="9">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="9">
         <v>8.4699999999999998E-2</v>
       </c>
       <c r="H7" s="3"/>
@@ -22406,24 +22429,24 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="14">
+        <v>162</v>
+      </c>
+      <c r="B8" s="9">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <v>3.39E-2</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="9">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="9">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="9">
         <v>4.24E-2</v>
       </c>
       <c r="H8" s="3"/>
@@ -22435,24 +22458,24 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
+        <v>161</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="9">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="9">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="9">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="9">
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="H9" s="3"/>
@@ -22464,24 +22487,24 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="14">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
+        <v>160</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="9">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="9">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
         <v>0</v>
       </c>
       <c r="H10" s="3"/>
@@ -22491,29 +22514,29 @@
         <v>10</v>
       </c>
       <c r="R10" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="14">
+        <v>169</v>
+      </c>
+      <c r="B11" s="9">
         <v>4.24E-2</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="9">
         <v>4.24E-2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="9">
         <v>8.4699999999999998E-2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="9">
         <v>0.1356</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="9">
         <v>0.1525</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="9">
         <v>0.161</v>
       </c>
       <c r="H11" s="3"/>
@@ -22532,61 +22555,61 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="J12" s="2"/>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
     </row>
     <row r="13" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="N13" s="7" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="N13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
     </row>
     <row r="21" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA21">
@@ -22601,100 +22624,100 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="N36" s="7" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="N36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
     </row>
     <row r="59" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="N59" s="7" t="s">
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="N59" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
     </row>
     <row r="60" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -25488,8 +25511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A15BAF-0511-D946-86A9-0E02EE5492D6}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25563,7 +25586,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B9" s="5">
         <v>0.16800000000000001</v>
@@ -25580,7 +25603,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25593,10 +25616,10 @@
         <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -25606,11 +25629,11 @@
       <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="8">
         <f>D2-B2</f>
         <v>5.5E-2</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="7">
         <v>5.5E-2</v>
       </c>
     </row>
@@ -25621,11 +25644,11 @@
       <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:C9" si="0">D3-B3</f>
         <v>0.16669999999999999</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="7">
         <v>0.16669999999999999</v>
       </c>
     </row>
@@ -25636,11 +25659,11 @@
       <c r="B4" s="5">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <f t="shared" si="0"/>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="7">
         <v>0.1216</v>
       </c>
     </row>
@@ -25651,11 +25674,11 @@
       <c r="B5" s="5">
         <v>0.11890000000000001</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>0.12589999999999998</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="7">
         <v>0.24479999999999999</v>
       </c>
     </row>
@@ -25666,11 +25689,11 @@
       <c r="B6" s="5">
         <v>0.19670000000000001</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>9.0199999999999975E-2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="7">
         <v>0.28689999999999999</v>
       </c>
     </row>
@@ -25681,11 +25704,11 @@
       <c r="B7" s="5">
         <v>0.20669999999999999</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="7">
         <v>0.28670000000000001</v>
       </c>
     </row>
@@ -25696,26 +25719,26 @@
       <c r="B8" s="5">
         <v>0.16950000000000001</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>5.9299999999999992E-2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="7">
         <v>0.2288</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B9" s="5">
         <v>0.2319</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>8.6899999999999977E-2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="7">
         <v>0.31879999999999997</v>
       </c>
     </row>
